--- a/public/template_kategori.xlsx
+++ b/public/template_kategori.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C05DE2-DFD8-47AA-ABB3-C6A72FFC600D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6928664-A2CE-4195-9039-087655B8FD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6537B94B-3AFD-420B-AF59-F57FFDA02509}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>kategori_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>kategori_kode</t>
   </si>
@@ -397,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174BF9FC-00F5-49B6-A40F-A6AA1CB40135}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,37 +407,28 @@
     <col min="3" max="3" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
